--- a/titanic/train.xlsx
+++ b/titanic/train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/titanic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A97DCABF-4693-E646-A298-AAE4C0D0260A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BDAA1FD9-9308-7F42-9830-DAB44880DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -54345,8 +54345,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC6A88-D450-0D44-AEEF-70F336F68D5E}">
   <dimension ref="A1:AA893"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92959,8 +92959,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42ED049-98B3-4F4B-8686-C876202B5009}">
   <dimension ref="A1:I892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
